--- a/MNI_zscores_data.xlsx
+++ b/MNI_zscores_data.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,35 +456,6 @@
         <v>4.824011015542946</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1.169643189395953</v>
-      </c>
-      <c r="C3">
-        <v>0.5752837975746096</v>
-      </c>
-      <c r="D3">
-        <v>4.580929913630237</v>
-      </c>
-      <c r="E3">
-        <v>1.291267769528675</v>
-      </c>
-      <c r="F3">
-        <v>2.379315503307237</v>
-      </c>
-      <c r="G3">
-        <v>2.117183956751653</v>
-      </c>
-      <c r="H3">
-        <v>5.041197594487426</v>
-      </c>
-      <c r="I3">
-        <v>4.824011015542946</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
